--- a/data/trans_bre/P20_5_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P20_5_R-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>11,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>33,73%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 6,57</t>
+          <t>2,26; 12,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 12,65</t>
+          <t>5,16; 16,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 10,61</t>
+          <t>4,93; 34,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 27,25</t>
+          <t>14,19; 56,18</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,89</t>
+          <t>8,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,28</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>23,15%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 15,52</t>
+          <t>3,0; 15,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 15,62</t>
+          <t>1,57; 14,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 28,75</t>
+          <t>7,45; 43,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 35,2</t>
+          <t>4,22; 47,89</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,87</t>
+          <t>12,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>32,15%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>23,08%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 29,89</t>
+          <t>-0,68; 24,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 21,12</t>
+          <t>-6,89; 20,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 69,51</t>
+          <t>-1,71; 82,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,6; 49,54</t>
+          <t>-14,79; 75,93</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>9,47</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>22,13%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>28,23%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 10,19</t>
+          <t>5,01; 12,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 11,18</t>
+          <t>5,07; 13,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 17,42</t>
+          <t>12,22; 33,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 23,31</t>
+          <t>14,17; 44,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20_5_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P20_5_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,69</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>11,08</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>19,09%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>33,73%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.4387528839030819</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.311996286709297</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.006736433437927532</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1011632786121087</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,26; 12,82</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>5,16; 16,46</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,93; 34,29</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>14,19; 56,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.081646766411261</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.806835675614264</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.07425121767158514</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.03206944562524965</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.477487809159818</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.46004385737899</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.1045148303111979</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.2621838346592458</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>8,86</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,8</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>22,96%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>23,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>3,0; 15,09</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,57; 14,2</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>7,45; 43,64</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,22; 47,89</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.888565118392066</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>9.031929207270734</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.1356386878583664</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.1826242540865498</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>12,19</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,25</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>32,15%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>23,08%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1.201692070784873</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.4665818029682928</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.01976025943562838</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.008231528809732167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 24,35</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,89; 20,91</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,71; 82,09</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-14,79; 75,93</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>15.19238609333852</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>16.60249880243154</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.2846136135018688</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.3703978011014965</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>8,7</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>9,47</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>22,13%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>28,23%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>14.87545583667762</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.742771918865211</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.2715284664305988</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1686711740508881</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>5,01; 12,17</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5,07; 13,71</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>12,22; 33,32</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>14,17; 44,31</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.7206031993926382</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.966624674666802</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.01165530407960002</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.1392552672916525</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>30.14845011307196</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>23.88982477851933</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.7006193864241532</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.5515378992955058</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>5.324812067977502</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.208156538135968</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.08744632078645975</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.1409041025703651</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.050901171755623</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.684078062008445</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.0161877442493183</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.03138029644372387</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.86707010435075</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.29300908267918</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1710719427995693</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.2614093650561151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
